--- a/Planilhas/População Grau de instrução NACIONAL.xlsx
+++ b/Planilhas/População Grau de instrução NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,8 +486,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>16610</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -519,8 +521,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>16628</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16628</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -552,8 +556,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>16865</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16865</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -585,8 +591,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>17038</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -618,8 +626,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>15648</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15648</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -651,8 +661,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>16125</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16125</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -684,8 +696,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>16892</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16892</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,8 +731,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>17061</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17061</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -750,8 +766,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>15559</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15559</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -783,8 +801,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>15767</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15767</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -816,8 +836,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>16345</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16345</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -849,8 +871,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>16352</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16352</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -882,8 +906,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>14818</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14818</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -915,8 +941,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>15066</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15066</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -948,8 +976,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>15706</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15706</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -981,8 +1011,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>16826</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16826</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1014,8 +1046,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>14834</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14834</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1047,8 +1081,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>15813</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15813</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1080,8 +1116,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>16135</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16135</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1113,8 +1151,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>16377</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16377</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1146,8 +1186,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>14704</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14704</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1179,8 +1221,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>14915</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14915</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1212,8 +1256,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>15344</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15344</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1245,8 +1291,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>15549</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15549</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1278,8 +1326,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>14223</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14223</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1311,8 +1361,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>14661</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14661</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1344,8 +1396,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>14743</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14743</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1377,8 +1431,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>14855</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14855</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1410,8 +1466,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>13642</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13642</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1443,8 +1501,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>14075</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14075</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1476,8 +1536,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>14648</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14648</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1509,8 +1571,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>14924</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14924</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1542,8 +1606,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>13371</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13371</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1575,8 +1641,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>13180</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13180</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1608,8 +1676,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>13902</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13902</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1641,8 +1711,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>14484</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14484</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1674,8 +1746,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>13754</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13754</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1707,8 +1781,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>14297</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14297</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1740,8 +1816,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>15395</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15395</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1773,8 +1851,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>15819</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15819</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1806,8 +1886,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>14583</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14583</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1839,8 +1921,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>15067</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15067</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1872,8 +1956,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>15750</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15750</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1905,8 +1991,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>16134</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16134</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1938,8 +2026,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>15148</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15148</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1971,8 +2061,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>15309</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15309</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2004,8 +2096,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>15772</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15772</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2037,8 +2131,10 @@
           <t>Sem instrução e menos de 1 ano de estudo</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>15916</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15916</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2070,8 +2166,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>74933</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>74933</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2103,8 +2201,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>75202</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>75202</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2136,8 +2236,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>75308</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>75308</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2169,8 +2271,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>75317</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>75317</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2202,8 +2306,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>74461</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>74461</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2235,8 +2341,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>74208</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>74208</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2268,8 +2376,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>73754</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>73754</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2301,8 +2411,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>73667</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>73667</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2334,8 +2446,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>72607</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>72607</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2367,8 +2481,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>72531</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>72531</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2400,8 +2516,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>72608</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>72608</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2433,8 +2551,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>72681</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>72681</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2466,8 +2586,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>72123</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>72123</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2499,8 +2621,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>72048</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>72048</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2532,8 +2656,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>71587</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>71587</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2565,8 +2691,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>71421</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>71421</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2598,8 +2726,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>71007</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>71007</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2631,8 +2761,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>70919</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>70919</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2664,8 +2796,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>70613</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>70613</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2697,8 +2831,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>70540</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>70540</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2730,8 +2866,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>70521</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>70521</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2763,8 +2901,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>71048</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>71048</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2796,8 +2936,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>70646</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>70646</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2829,8 +2971,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>70602</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>70602</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2862,8 +3006,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>70358</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>70358</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2895,8 +3041,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>70255</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>70255</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2928,8 +3076,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>70004</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>70004</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2961,8 +3111,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>69721</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>69721</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2994,8 +3146,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>69011</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>69011</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3027,8 +3181,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>69167</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>69167</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3060,8 +3216,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>69006</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>69006</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3093,8 +3251,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>68479</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>68479</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3126,8 +3286,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>67672</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>67672</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3159,8 +3321,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>66178</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>66178</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3192,8 +3356,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>65857</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>65857</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3225,8 +3391,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>64643</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>64643</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3258,8 +3426,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>64036</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>64036</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3291,8 +3461,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>64472</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>64472</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3324,8 +3496,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>65372</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>65372</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3357,8 +3531,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>65537</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>65537</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3390,8 +3566,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>65190</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>65190</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3423,8 +3601,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>64998</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>64998</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3456,8 +3636,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>64812</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>64812</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3489,8 +3671,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>64546</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>64546</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3522,8 +3706,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>64064</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>64064</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3555,8 +3741,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>63945</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>63945</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3588,8 +3776,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>63416</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>63416</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3621,8 +3811,10 @@
           <t>Ensino fundamental incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>63391</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>63391</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3654,8 +3846,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>17928</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>17928</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3687,8 +3881,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>17874</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>17874</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3720,8 +3916,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>17820</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>17820</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3753,8 +3951,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>17669</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>17669</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3786,8 +3986,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>18072</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>18072</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3819,8 +4021,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>18013</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>18013</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3852,8 +4056,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>18289</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>18289</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3885,8 +4091,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>18165</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>18165</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3918,8 +4126,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>18753</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>18753</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3951,8 +4161,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>18643</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>18643</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3984,8 +4196,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>18356</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18356</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4017,8 +4231,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>18306</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>18306</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4050,8 +4266,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>18521</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>18521</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4083,8 +4301,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>18246</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>18246</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4116,8 +4336,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>18048</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>18048</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4149,8 +4371,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>16791</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>16791</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4182,8 +4406,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>17334</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>17334</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4215,8 +4441,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>17072</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>17072</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4248,8 +4476,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>16601</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>16601</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4281,8 +4511,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>16477</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>16477</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4314,8 +4546,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>16867</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>16867</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4347,8 +4581,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>16125</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>16125</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4380,8 +4616,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>16007</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>16007</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4413,8 +4651,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>15909</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>15909</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4446,8 +4686,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>15719</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>15719</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4479,8 +4721,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>15531</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>15531</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4512,8 +4756,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>15390</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>15390</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4545,8 +4791,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>15185</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>15185</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4578,8 +4826,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>15506</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>15506</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4611,8 +4861,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>15421</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>15421</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4644,8 +4896,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>15221</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>15221</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4677,8 +4931,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>15147</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>15147</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4710,8 +4966,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>15259</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>15259</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4743,8 +5001,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>15230</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>15230</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4776,8 +5036,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>15206</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>15206</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4809,8 +5071,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>15315</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>15315</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4842,8 +5106,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>15658</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>15658</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4875,8 +5141,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>15365</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>15365</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4908,8 +5176,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>15330</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>15330</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4941,8 +5211,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>15254</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>15254</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4974,8 +5246,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>15346</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>15346</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5007,8 +5281,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>15101</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>15101</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5040,8 +5316,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>14789</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>14789</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5073,8 +5351,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>14686</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>14686</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5106,8 +5386,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>14871</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>14871</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5139,8 +5421,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>14893</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>14893</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5172,8 +5456,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>14759</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>14759</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5205,8 +5491,10 @@
           <t>Ensino fundamental completo ou equivalente</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>14771</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>14771</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5238,8 +5526,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>12116</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>12116</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5271,8 +5561,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>12142</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>12142</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5304,8 +5596,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>11905</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>11905</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5337,8 +5631,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>11704</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>11704</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5370,8 +5666,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>11969</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>11969</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5403,8 +5701,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>12163</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>12163</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5436,8 +5736,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>12067</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>12067</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5469,8 +5771,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>12049</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>12049</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5502,8 +5806,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>12514</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>12514</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5535,8 +5841,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>12424</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>12424</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5568,8 +5876,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>12453</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>12453</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5601,8 +5911,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>12184</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>12184</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5634,8 +5946,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>12539</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>12539</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5667,8 +5981,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>12845</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>12845</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5700,8 +6016,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D160" t="n">
-        <v>12625</v>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>12625</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5733,8 +6051,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>12444</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>12444</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5766,8 +6086,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>12871</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>12871</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5799,8 +6121,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>12974</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>12974</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5832,8 +6156,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>13156</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>13156</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5865,8 +6191,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D165" t="n">
-        <v>13267</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>13267</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5898,8 +6226,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>13244</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>13244</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5931,8 +6261,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>13725</v>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>13725</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5964,8 +6296,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>13689</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>13689</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5997,8 +6331,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>13454</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>13454</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6030,8 +6366,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>13556</v>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>13556</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6063,8 +6401,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D171" t="n">
-        <v>13734</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>13734</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6096,8 +6436,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D172" t="n">
-        <v>13789</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>13789</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6129,8 +6471,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D173" t="n">
-        <v>13601</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>13601</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6162,8 +6506,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>13766</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>13766</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6195,8 +6541,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>13770</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>13770</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6228,8 +6576,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>13965</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>13965</t>
+        </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6261,8 +6611,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>13638</v>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>13638</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6294,8 +6646,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>13703</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>13703</t>
+        </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6327,8 +6681,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D179" t="n">
-        <v>13605</v>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>13605</t>
+        </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6360,8 +6716,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D180" t="n">
-        <v>13411</v>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>13411</t>
+        </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6393,8 +6751,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D181" t="n">
-        <v>13520</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>13520</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6426,8 +6786,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D182" t="n">
-        <v>14001</v>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>14001</t>
+        </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6459,8 +6821,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D183" t="n">
-        <v>14230</v>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>14230</t>
+        </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6492,8 +6856,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D184" t="n">
-        <v>14300</v>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>14300</t>
+        </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6525,8 +6891,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D185" t="n">
-        <v>14293</v>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>14293</t>
+        </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6558,8 +6926,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D186" t="n">
-        <v>14458</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>14458</t>
+        </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6591,8 +6961,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D187" t="n">
-        <v>14405</v>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>14405</t>
+        </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6624,8 +6996,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D188" t="n">
-        <v>14287</v>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>14287</t>
+        </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6657,8 +7031,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>14421</v>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>14421</t>
+        </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -6690,8 +7066,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D190" t="n">
-        <v>14573</v>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>14573</t>
+        </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6723,8 +7101,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D191" t="n">
-        <v>14384</v>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>14384</t>
+        </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6756,8 +7136,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D192" t="n">
-        <v>14344</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>14344</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6789,8 +7171,10 @@
           <t>Ensino médio incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>14086</v>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>14086</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6822,8 +7206,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D194" t="n">
-        <v>38568</v>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>38568</t>
+        </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -6855,8 +7241,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D195" t="n">
-        <v>38732</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>38732</t>
+        </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6888,8 +7276,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D196" t="n">
-        <v>38826</v>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>38826</t>
+        </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -6921,8 +7311,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>39281</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>39281</t>
+        </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -6954,8 +7346,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>40689</v>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>40689</t>
+        </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -6987,8 +7381,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>40625</v>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>40625</t>
+        </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7020,8 +7416,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>40518</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>40518</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7053,8 +7451,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D201" t="n">
-        <v>40892</v>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>40892</t>
+        </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -7086,8 +7486,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D202" t="n">
-        <v>42079</v>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>42079</t>
+        </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -7119,8 +7521,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D203" t="n">
-        <v>42332</v>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>42332</t>
+        </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -7152,8 +7556,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>42006</v>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>42006</t>
+        </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -7185,8 +7591,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D205" t="n">
-        <v>42161</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>42161</t>
+        </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -7218,8 +7626,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D206" t="n">
-        <v>42987</v>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>42987</t>
+        </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -7251,8 +7661,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>42832</v>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>42832</t>
+        </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -7284,8 +7696,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D208" t="n">
-        <v>42902</v>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>42902</t>
+        </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -7317,8 +7731,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D209" t="n">
-        <v>44043</v>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>44043</t>
+        </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -7350,8 +7766,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>44936</v>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>44936</t>
+        </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -7383,8 +7801,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>44573</v>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>44573</t>
+        </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -7416,8 +7836,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D212" t="n">
-        <v>45090</v>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>45090</t>
+        </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -7449,8 +7871,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D213" t="n">
-        <v>45209</v>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>45209</t>
+        </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -7482,8 +7906,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D214" t="n">
-        <v>46213</v>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>46213</t>
+        </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -7515,8 +7941,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D215" t="n">
-        <v>45975</v>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>45975</t>
+        </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -7548,8 +7976,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D216" t="n">
-        <v>45890</v>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>45890</t>
+        </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -7581,8 +8011,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D217" t="n">
-        <v>46217</v>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>46217</t>
+        </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -7614,8 +8046,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D218" t="n">
-        <v>47245</v>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>47245</t>
+        </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -7647,8 +8081,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D219" t="n">
-        <v>46875</v>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>46875</t>
+        </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -7680,8 +8116,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D220" t="n">
-        <v>47093</v>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>47093</t>
+        </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -7713,8 +8151,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>47541</v>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>47541</t>
+        </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -7746,8 +8186,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D222" t="n">
-        <v>48560</v>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>48560</t>
+        </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -7779,8 +8221,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D223" t="n">
-        <v>48389</v>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>48389</t>
+        </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -7812,8 +8256,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D224" t="n">
-        <v>48447</v>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>48447</t>
+        </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -7845,8 +8291,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D225" t="n">
-        <v>49133</v>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>49133</t>
+        </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -7878,8 +8326,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D226" t="n">
-        <v>50433</v>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>50433</t>
+        </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -7911,8 +8361,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>51067</v>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>51067</t>
+        </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -7944,8 +8396,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D228" t="n">
-        <v>51187</v>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>51187</t>
+        </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -7977,8 +8431,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D229" t="n">
-        <v>50943</v>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>50943</t>
+        </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -8010,8 +8466,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D230" t="n">
-        <v>51282</v>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>51282</t>
+        </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -8043,8 +8501,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D231" t="n">
-        <v>51578</v>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>51578</t>
+        </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -8076,8 +8536,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D232" t="n">
-        <v>51472</v>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>51472</t>
+        </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -8109,8 +8571,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D233" t="n">
-        <v>51619</v>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>51619</t>
+        </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -8142,8 +8606,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>52761</v>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>52761</t>
+        </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -8175,8 +8641,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D235" t="n">
-        <v>52893</v>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>52893</t>
+        </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -8208,8 +8676,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D236" t="n">
-        <v>52739</v>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>52739</t>
+        </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -8241,8 +8711,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D237" t="n">
-        <v>52792</v>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>52792</t>
+        </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -8274,8 +8746,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D238" t="n">
-        <v>53986</v>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>53986</t>
+        </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -8307,8 +8781,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D239" t="n">
-        <v>54282</v>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>54282</t>
+        </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -8340,8 +8816,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D240" t="n">
-        <v>54417</v>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>54417</t>
+        </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -8373,8 +8851,10 @@
           <t>Ensino médio completo ou equivalente</t>
         </is>
       </c>
-      <c r="D241" t="n">
-        <v>54663</v>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>54663</t>
+        </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -8406,8 +8886,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D242" t="n">
-        <v>6796</v>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>6796</t>
+        </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -8439,8 +8921,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>6735</v>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>6735</t>
+        </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -8472,8 +8956,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>6829</v>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>6829</t>
+        </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -8505,8 +8991,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D245" t="n">
-        <v>6693</v>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>6693</t>
+        </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -8538,8 +9026,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D246" t="n">
-        <v>7045</v>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>7045</t>
+        </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -8571,8 +9061,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D247" t="n">
-        <v>7076</v>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>7076</t>
+        </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -8604,8 +9096,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D248" t="n">
-        <v>7026</v>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>7026</t>
+        </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -8637,8 +9131,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D249" t="n">
-        <v>6989</v>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>6989</t>
+        </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -8670,8 +9166,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D250" t="n">
-        <v>7293</v>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -8703,8 +9201,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D251" t="n">
-        <v>7313</v>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>7313</t>
+        </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -8736,8 +9236,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D252" t="n">
-        <v>7481</v>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>7481</t>
+        </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -8769,8 +9271,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D253" t="n">
-        <v>7539</v>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>7539</t>
+        </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -8802,8 +9306,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>7935</v>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -8835,8 +9341,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D255" t="n">
-        <v>7989</v>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>7989</t>
+        </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -8868,8 +9376,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D256" t="n">
-        <v>8118</v>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>8118</t>
+        </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -8901,8 +9411,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D257" t="n">
-        <v>7540</v>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>7540</t>
+        </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -8934,8 +9446,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D258" t="n">
-        <v>7884</v>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>7884</t>
+        </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -8967,8 +9481,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D259" t="n">
-        <v>8013</v>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>8013</t>
+        </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -9000,8 +9516,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>7897</v>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>7897</t>
+        </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -9033,8 +9551,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>7807</v>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>7807</t>
+        </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -9066,8 +9586,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D262" t="n">
-        <v>8094</v>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -9099,8 +9621,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D263" t="n">
-        <v>8351</v>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>8351</t>
+        </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -9132,8 +9656,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D264" t="n">
-        <v>8543</v>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>8543</t>
+        </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -9165,8 +9691,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D265" t="n">
-        <v>8522</v>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>8522</t>
+        </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -9198,8 +9726,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D266" t="n">
-        <v>8986</v>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>8986</t>
+        </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -9231,8 +9761,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D267" t="n">
-        <v>9231</v>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>9231</t>
+        </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -9264,8 +9796,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D268" t="n">
-        <v>9222</v>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>9222</t>
+        </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -9297,8 +9831,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D269" t="n">
-        <v>9131</v>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>9131</t>
+        </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -9330,8 +9866,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D270" t="n">
-        <v>9332</v>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>9332</t>
+        </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -9363,8 +9901,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D271" t="n">
-        <v>9456</v>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -9396,8 +9936,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D272" t="n">
-        <v>9198</v>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>9198</t>
+        </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -9429,8 +9971,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D273" t="n">
-        <v>9234</v>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>9234</t>
+        </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -9462,8 +10006,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D274" t="n">
-        <v>9687</v>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -9495,8 +10041,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D275" t="n">
-        <v>10022</v>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -9528,8 +10076,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D276" t="n">
-        <v>9941</v>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>9941</t>
+        </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -9561,8 +10111,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D277" t="n">
-        <v>10017</v>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>10017</t>
+        </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -9594,8 +10146,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D278" t="n">
-        <v>10097</v>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>10097</t>
+        </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -9627,8 +10181,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D279" t="n">
-        <v>9615</v>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>9615</t>
+        </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -9660,8 +10216,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D280" t="n">
-        <v>9258</v>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>9258</t>
+        </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -9693,8 +10251,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D281" t="n">
-        <v>8955</v>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>8955</t>
+        </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -9726,8 +10286,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D282" t="n">
-        <v>9096</v>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>9096</t>
+        </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -9759,8 +10321,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D283" t="n">
-        <v>9136</v>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>9136</t>
+        </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -9792,8 +10356,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D284" t="n">
-        <v>9379</v>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>9379</t>
+        </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -9825,8 +10391,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D285" t="n">
-        <v>9010</v>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>9010</t>
+        </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -9858,8 +10426,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D286" t="n">
-        <v>9237</v>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -9891,8 +10461,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D287" t="n">
-        <v>9264</v>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>9264</t>
+        </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -9924,8 +10496,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D288" t="n">
-        <v>9276</v>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>9276</t>
+        </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -9957,8 +10531,10 @@
           <t>Ensino superior incompleto ou equivalente</t>
         </is>
       </c>
-      <c r="D289" t="n">
-        <v>9071</v>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>9071</t>
+        </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -9990,8 +10566,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D290" t="n">
-        <v>15515</v>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>15515</t>
+        </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -10023,8 +10601,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D291" t="n">
-        <v>15600</v>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>15600</t>
+        </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -10056,8 +10636,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D292" t="n">
-        <v>15805</v>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>15805</t>
+        </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -10089,8 +10671,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D293" t="n">
-        <v>16097</v>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>16097</t>
+        </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -10122,8 +10706,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D294" t="n">
-        <v>16360</v>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>16360</t>
+        </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -10155,8 +10741,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D295" t="n">
-        <v>16474</v>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>16474</t>
+        </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -10188,8 +10776,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D296" t="n">
-        <v>16574</v>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>16574</t>
+        </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -10221,8 +10811,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D297" t="n">
-        <v>16726</v>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>16726</t>
+        </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -10254,8 +10846,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D298" t="n">
-        <v>17169</v>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>17169</t>
+        </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -10287,8 +10881,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D299" t="n">
-        <v>17390</v>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>17390</t>
+        </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -10320,8 +10916,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D300" t="n">
-        <v>17566</v>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>17566</t>
+        </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -10353,8 +10951,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D301" t="n">
-        <v>17993</v>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>17993</t>
+        </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -10386,8 +10986,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D302" t="n">
-        <v>18691</v>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>18691</t>
+        </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -10419,8 +11021,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D303" t="n">
-        <v>18990</v>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>18990</t>
+        </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -10452,8 +11056,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D304" t="n">
-        <v>19435</v>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>19435</t>
+        </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -10485,8 +11091,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D305" t="n">
-        <v>19770</v>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>19770</t>
+        </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -10518,8 +11126,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D306" t="n">
-        <v>20381</v>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>20381</t>
+        </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -10551,8 +11161,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D307" t="n">
-        <v>20295</v>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>20295</t>
+        </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -10584,8 +11196,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D308" t="n">
-        <v>20582</v>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>20582</t>
+        </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -10617,8 +11231,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D309" t="n">
-        <v>20814</v>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>20814</t>
+        </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -10650,8 +11266,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D310" t="n">
-        <v>21264</v>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>21264</t>
+        </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -10683,8 +11301,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D311" t="n">
-        <v>21183</v>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>21183</t>
+        </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -10716,8 +11336,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D312" t="n">
-        <v>21609</v>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>21609</t>
+        </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -10749,8 +11371,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D313" t="n">
-        <v>21873</v>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>21873</t>
+        </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -10782,8 +11406,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D314" t="n">
-        <v>22436</v>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>22436</t>
+        </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -10815,8 +11441,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D315" t="n">
-        <v>22629</v>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>22629</t>
+        </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -10848,8 +11476,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D316" t="n">
-        <v>23076</v>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>23076</t>
+        </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -10881,8 +11511,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D317" t="n">
-        <v>23689</v>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>23689</t>
+        </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -10914,8 +11546,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D318" t="n">
-        <v>24308</v>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>24308</t>
+        </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -10947,8 +11581,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D319" t="n">
-        <v>24248</v>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>24248</t>
+        </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -10980,8 +11616,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D320" t="n">
-        <v>24450</v>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>24450</t>
+        </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -11013,8 +11651,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D321" t="n">
-        <v>24797</v>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>24797</t>
+        </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -11046,8 +11686,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D322" t="n">
-        <v>25640</v>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>25640</t>
+        </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -11079,8 +11721,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D323" t="n">
-        <v>26895</v>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>26895</t>
+        </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -11112,8 +11756,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D324" t="n">
-        <v>27080</v>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>27080</t>
+        </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -11145,8 +11791,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D325" t="n">
-        <v>28058</v>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>28058</t>
+        </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -11178,8 +11826,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D326" t="n">
-        <v>28548</v>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>28548</t>
+        </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -11211,8 +11861,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D327" t="n">
-        <v>28209</v>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>28209</t>
+        </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -11244,8 +11896,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D328" t="n">
-        <v>27029</v>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>27029</t>
+        </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -11277,8 +11931,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D329" t="n">
-        <v>27066</v>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>27066</t>
+        </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -11310,8 +11966,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>27494</v>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>27494</t>
+        </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -11343,8 +12001,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>27707</v>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>27707</t>
+        </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -11376,8 +12036,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D332" t="n">
-        <v>27941</v>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>27941</t>
+        </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -11409,8 +12071,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D333" t="n">
-        <v>28503</v>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>28503</t>
+        </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -11442,8 +12106,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D334" t="n">
-        <v>28606</v>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>28606</t>
+        </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -11475,8 +12141,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D335" t="n">
-        <v>28796</v>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>28796</t>
+        </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -11508,8 +12176,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D336" t="n">
-        <v>29275</v>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>29275</t>
+        </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -11541,8 +12211,10 @@
           <t>Ensino superior completo ou equivalente</t>
         </is>
       </c>
-      <c r="D337" t="n">
-        <v>29747</v>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>29747</t>
+        </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -11574,8 +12246,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D338" t="n">
-        <v>0</v>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -11607,8 +12281,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D339" t="n">
-        <v>0</v>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -11640,8 +12316,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D340" t="n">
-        <v>0</v>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -11673,8 +12351,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D341" t="n">
-        <v>0</v>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -11706,8 +12386,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D342" t="n">
-        <v>0</v>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -11739,8 +12421,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D343" t="n">
-        <v>0</v>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -11772,8 +12456,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D344" t="n">
-        <v>0</v>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -11805,8 +12491,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D345" t="n">
-        <v>0</v>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -11838,8 +12526,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D346" t="n">
-        <v>0</v>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -11871,8 +12561,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D347" t="n">
-        <v>0</v>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -11904,8 +12596,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D348" t="n">
-        <v>0</v>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -11937,8 +12631,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D349" t="n">
-        <v>0</v>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -11970,8 +12666,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D350" t="n">
-        <v>0</v>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -12003,8 +12701,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D351" t="n">
-        <v>0</v>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -12036,8 +12736,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D352" t="n">
-        <v>0</v>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -12069,8 +12771,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D353" t="n">
-        <v>0</v>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -12102,8 +12806,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D354" t="n">
-        <v>0</v>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -12135,8 +12841,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D355" t="n">
-        <v>0</v>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -12168,8 +12876,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D356" t="n">
-        <v>0</v>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -12201,8 +12911,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D357" t="n">
-        <v>0</v>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -12234,8 +12946,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D358" t="n">
-        <v>0</v>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -12267,8 +12981,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D359" t="n">
-        <v>0</v>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -12300,8 +13016,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D360" t="n">
-        <v>0</v>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -12333,8 +13051,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D361" t="n">
-        <v>0</v>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -12366,8 +13086,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D362" t="n">
-        <v>0</v>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -12399,8 +13121,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D363" t="n">
-        <v>0</v>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -12432,8 +13156,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D364" t="n">
-        <v>0</v>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -12465,8 +13191,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D365" t="n">
-        <v>0</v>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -12498,8 +13226,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D366" t="n">
-        <v>0</v>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -12531,8 +13261,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D367" t="n">
-        <v>0</v>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -12564,8 +13296,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D368" t="n">
-        <v>0</v>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -12597,8 +13331,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D369" t="n">
-        <v>0</v>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -12630,8 +13366,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D370" t="n">
-        <v>0</v>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -12663,8 +13401,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D371" t="n">
-        <v>0</v>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -12696,8 +13436,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D372" t="n">
-        <v>0</v>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -12729,8 +13471,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D373" t="n">
-        <v>0</v>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -12762,8 +13506,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D374" t="n">
-        <v>0</v>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -12795,8 +13541,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D375" t="n">
-        <v>0</v>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -12828,8 +13576,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D376" t="n">
-        <v>0</v>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -12861,8 +13611,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D377" t="n">
-        <v>0</v>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -12894,8 +13646,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D378" t="n">
-        <v>0</v>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -12927,8 +13681,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D379" t="n">
-        <v>0</v>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -12960,8 +13716,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D380" t="n">
-        <v>0</v>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -12993,8 +13751,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D381" t="n">
-        <v>0</v>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -13026,8 +13786,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D382" t="n">
-        <v>0</v>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -13059,8 +13821,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D383" t="n">
-        <v>0</v>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -13092,8 +13856,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D384" t="n">
-        <v>0</v>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -13125,8 +13891,10 @@
           <t>Não determinado</t>
         </is>
       </c>
-      <c r="D385" t="n">
-        <v>0</v>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
